--- a/data/trans_orig/P74A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EF1C944-DF8A-4654-8A03-BD3D145CDBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{438FC678-B566-4D38-9973-241BD94D58C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6D869CB-E7A7-4D81-AE24-23DF862D02C5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72227F2C-AB86-4382-8632-0D7E4E6D08B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="548">
   <si>
     <t>Población según la situación laboral de su pareja en 2007 (Tasa respuesta: 63,66%)</t>
   </si>
@@ -85,1555 +85,1546 @@
     <t>0,72%</t>
   </si>
   <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>Incapacidad/invalidez permanente</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>Sus labores/Ama de casa</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>Jubilado (trabajó anteriormente)</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>Busca primer empleo</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>Está en el paro y ha trabajado antes</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>Trabaja</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la situación laboral de su pareja en 2012 (Tasa respuesta: 63,96%)</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Incapacidad/invalidez permanente</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>Población según la situación laboral de su pareja en 2015 (Tasa respuesta: 61,82%)</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>Sus labores/Ama de casa</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>Jubilado (trabajó anteriormente)</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>Busca primer empleo</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>Está en el paro y ha trabajado antes</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>Trabaja</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>28,91%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la situación laboral de su pareja en 2012 (Tasa respuesta: 63,96%)</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>Población según la situación laboral de su pareja en 2015 (Tasa respuesta: 61,82%)</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
   </si>
   <si>
     <t>16,7%</t>
@@ -2102,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3358E51F-69C1-42E6-8835-F195ECFA7E53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D8D608-6A1F-42F1-B968-66EFBFAAC48C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2328,13 +2319,13 @@
         <v>1962</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2343,13 +2334,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2361,16 +2352,16 @@
         <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>533</v>
@@ -2379,13 +2370,13 @@
         <v>521598</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2394,13 +2385,13 @@
         <v>2823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>535</v>
@@ -2409,19 +2400,19 @@
         <v>524421</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>69</v>
@@ -2430,13 +2421,13 @@
         <v>65120</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>417</v>
@@ -2445,13 +2436,13 @@
         <v>414437</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>486</v>
@@ -2460,19 +2451,19 @@
         <v>479556</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2481,13 +2472,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2499,10 +2490,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2511,19 +2502,19 @@
         <v>1060</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7">
         <v>14</v>
@@ -2532,13 +2523,13 @@
         <v>13810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2547,13 +2538,13 @@
         <v>22442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2562,19 +2553,19 @@
         <v>36252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7">
         <v>120</v>
@@ -2583,13 +2574,13 @@
         <v>125613</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>355</v>
@@ -2598,13 +2589,13 @@
         <v>363037</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>475</v>
@@ -2613,13 +2604,13 @@
         <v>488650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2625,13 @@
         <v>738910</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>814</v>
@@ -2649,13 +2640,13 @@
         <v>821797</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>1564</v>
@@ -2664,18 +2655,18 @@
         <v>1560706</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2687,13 +2678,13 @@
         <v>3870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2702,13 +2693,13 @@
         <v>5772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2717,13 +2708,13 @@
         <v>9642</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2729,13 @@
         <v>1555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2756,10 +2747,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2768,13 +2759,13 @@
         <v>8751</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2780,13 @@
         <v>9705</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2804,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -2819,19 +2810,19 @@
         <v>9705</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7">
         <v>560</v>
@@ -2840,13 +2831,13 @@
         <v>571086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2855,13 +2846,13 @@
         <v>1864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>562</v>
@@ -2870,19 +2861,19 @@
         <v>572950</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="7">
         <v>13</v>
@@ -2891,10 +2882,10 @@
         <v>13929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>107</v>
@@ -2933,7 +2924,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -2945,10 +2936,10 @@
         <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2957,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -2972,19 +2963,19 @@
         <v>1826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="7">
         <v>56</v>
@@ -2993,13 +2984,13 @@
         <v>58887</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -3008,13 +2999,13 @@
         <v>38074</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -3023,34 +3014,34 @@
         <v>96961</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7">
         <v>358</v>
       </c>
       <c r="D20" s="7">
-        <v>376621</v>
+        <v>376620</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>832</v>
@@ -3059,13 +3050,13 @@
         <v>862333</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>1190</v>
@@ -3074,13 +3065,13 @@
         <v>1238954</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,16 +3083,16 @@
         <v>999</v>
       </c>
       <c r="D21" s="7">
-        <v>1037479</v>
+        <v>1037478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <v>969</v>
@@ -3110,13 +3101,13 @@
         <v>1002726</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M21" s="7">
         <v>1968</v>
@@ -3125,18 +3116,18 @@
         <v>2040205</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3148,13 +3139,13 @@
         <v>1871</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3163,13 +3154,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3178,13 +3169,13 @@
         <v>1871</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3214,13 +3205,13 @@
         <v>976</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3229,13 +3220,13 @@
         <v>976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,10 +3244,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3265,13 +3256,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -3280,19 +3271,19 @@
         <v>4518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>123</v>
@@ -3301,13 +3292,13 @@
         <v>128522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3316,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -3331,19 +3322,19 @@
         <v>128522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>11</v>
@@ -3352,13 +3343,13 @@
         <v>13684</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -3367,13 +3358,13 @@
         <v>14781</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -3382,19 +3373,19 @@
         <v>28465</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -3403,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3418,13 +3409,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3433,19 +3424,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" s="7">
         <v>8</v>
@@ -3454,13 +3445,13 @@
         <v>8789</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3469,13 +3460,13 @@
         <v>2966</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -3484,19 +3475,19 @@
         <v>11755</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="7">
         <v>196</v>
@@ -3505,13 +3496,13 @@
         <v>206056</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>250</v>
@@ -3520,13 +3511,13 @@
         <v>268627</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>446</v>
@@ -3535,13 +3526,13 @@
         <v>474683</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3547,13 @@
         <v>363440</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H30" s="7">
         <v>268</v>
@@ -3571,13 +3562,13 @@
         <v>287350</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M30" s="7">
         <v>613</v>
@@ -3586,13 +3577,13 @@
         <v>650791</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3600,13 @@
         <v>9416</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -3624,13 +3615,13 @@
         <v>11670</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -3642,10 +3633,10 @@
         <v>11</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3651,13 @@
         <v>8687</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -3675,13 +3666,13 @@
         <v>20272</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -3690,13 +3681,13 @@
         <v>28959</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3702,13 @@
         <v>16185</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3726,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M33" s="7">
         <v>14</v>
@@ -3741,19 +3732,19 @@
         <v>16185</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" s="7">
         <v>1216</v>
@@ -3762,13 +3753,13 @@
         <v>1221206</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -3777,10 +3768,10 @@
         <v>4687</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>194</v>
@@ -3804,7 +3795,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7">
         <v>93</v>
@@ -3855,7 +3846,7 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -3864,13 +3855,13 @@
         <v>1826</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3879,13 +3870,13 @@
         <v>1060</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3894,19 +3885,19 @@
         <v>2886</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7">
         <v>78</v>
@@ -3957,7 +3948,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" s="7">
         <v>674</v>
@@ -4017,13 +4008,13 @@
         <v>2139829</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H39" s="7">
         <v>2051</v>
@@ -4032,13 +4023,13 @@
         <v>2111873</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M39" s="7">
         <v>4145</v>
@@ -4047,13 +4038,13 @@
         <v>4251702</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,7 +4068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BF2AFC-7396-4A0C-A931-BA0AC3C9B877}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E9EED-2FA1-4245-8EE3-0AEA028053A2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4201,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>18</v>
@@ -4216,13 +4207,13 @@
         <v>2075</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4234,10 +4225,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,7 +4246,7 @@
         <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>229</v>
@@ -4282,13 +4273,13 @@
         <v>35542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4294,13 @@
         <v>3870</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4318,13 +4309,13 @@
         <v>2878</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4333,19 +4324,19 @@
         <v>6747</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>114</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>363</v>
@@ -4354,13 +4345,13 @@
         <v>390908</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4372,10 +4363,10 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>364</v>
@@ -4384,19 +4375,19 @@
         <v>392002</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>80</v>
@@ -4405,13 +4396,13 @@
         <v>87025</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>399</v>
@@ -4420,13 +4411,13 @@
         <v>421410</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>479</v>
@@ -4435,19 +4426,19 @@
         <v>508436</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -4459,10 +4450,10 @@
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4471,13 +4462,13 @@
         <v>2127</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -4486,19 +4477,19 @@
         <v>4198</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7">
         <v>69</v>
@@ -4507,13 +4498,13 @@
         <v>73672</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>104</v>
@@ -4522,13 +4513,13 @@
         <v>112210</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -4537,19 +4528,19 @@
         <v>185882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7">
         <v>119</v>
@@ -4558,13 +4549,13 @@
         <v>126621</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>265</v>
@@ -4573,13 +4564,13 @@
         <v>286951</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>384</v>
@@ -4588,13 +4579,13 @@
         <v>413572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4600,13 @@
         <v>691486</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>800</v>
@@ -4624,13 +4615,13 @@
         <v>856967</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>1444</v>
@@ -4639,18 +4630,18 @@
         <v>1548454</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4662,13 +4653,13 @@
         <v>4458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4677,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>114</v>
@@ -4692,13 +4683,13 @@
         <v>4458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4704,13 @@
         <v>7138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -4728,13 +4719,13 @@
         <v>26018</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4743,13 +4734,13 @@
         <v>33156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4755,13 @@
         <v>7626</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4779,13 +4770,13 @@
         <v>5826</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -4794,19 +4785,19 @@
         <v>13452</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>284</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7">
         <v>476</v>
@@ -4815,13 +4806,13 @@
         <v>503738</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4830,13 +4821,13 @@
         <v>2946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>478</v>
@@ -4845,19 +4836,19 @@
         <v>506684</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="7">
         <v>23</v>
@@ -4866,13 +4857,13 @@
         <v>25946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4881,13 +4872,13 @@
         <v>98242</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -4896,19 +4887,19 @@
         <v>124188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -4917,13 +4908,13 @@
         <v>4749</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4932,13 +4923,13 @@
         <v>1184</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -4947,19 +4938,19 @@
         <v>5933</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="7">
         <v>168</v>
@@ -4968,13 +4959,13 @@
         <v>179118</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -4983,13 +4974,13 @@
         <v>187458</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>340</v>
@@ -4998,19 +4989,19 @@
         <v>366576</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7">
         <v>447</v>
@@ -5019,13 +5010,13 @@
         <v>480433</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>759</v>
@@ -5034,13 +5025,13 @@
         <v>815601</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>1206</v>
@@ -5049,13 +5040,13 @@
         <v>1296034</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5061,13 @@
         <v>1213206</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <v>1047</v>
@@ -5085,13 +5076,13 @@
         <v>1137274</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M21" s="7">
         <v>2183</v>
@@ -5100,18 +5091,18 @@
         <v>2350480</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5126,10 +5117,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5138,13 +5129,13 @@
         <v>1857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -5153,13 +5144,13 @@
         <v>3723</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5165,13 @@
         <v>2117</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -5192,10 +5183,10 @@
         <v>27</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -5204,13 +5195,13 @@
         <v>5769</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5216,13 @@
         <v>10422</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5240,13 +5231,13 @@
         <v>982</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -5255,19 +5246,19 @@
         <v>11404</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>63</v>
@@ -5276,13 +5267,13 @@
         <v>67774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5291,13 +5282,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>106</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5306,19 +5297,19 @@
         <v>67774</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>7</v>
@@ -5327,13 +5318,13 @@
         <v>11457</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5342,13 +5333,13 @@
         <v>19963</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -5357,19 +5348,19 @@
         <v>31419</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -5378,13 +5369,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -5393,13 +5384,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>106</v>
+        <v>341</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5408,19 +5399,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" s="7">
         <v>23</v>
@@ -5429,13 +5420,13 @@
         <v>27969</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5444,13 +5435,13 @@
         <v>17527</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -5459,19 +5450,19 @@
         <v>45496</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="7">
         <v>165</v>
@@ -5480,13 +5471,13 @@
         <v>183343</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H29" s="7">
         <v>226</v>
@@ -5495,13 +5486,13 @@
         <v>253334</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M29" s="7">
         <v>391</v>
@@ -5510,13 +5501,13 @@
         <v>436677</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5522,13 @@
         <v>304948</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H30" s="7">
         <v>263</v>
@@ -5546,13 +5537,13 @@
         <v>297314</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M30" s="7">
         <v>532</v>
@@ -5561,13 +5552,13 @@
         <v>602262</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5575,13 @@
         <v>6324</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>28</v>
+        <v>341</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -5599,13 +5590,13 @@
         <v>3932</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>144</v>
+        <v>277</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -5614,13 +5605,13 @@
         <v>10256</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5626,13 @@
         <v>16574</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>368</v>
+        <v>95</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>13</v>
+        <v>371</v>
       </c>
       <c r="H32" s="7">
         <v>49</v>
@@ -5650,13 +5641,13 @@
         <v>57892</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -5665,13 +5656,13 @@
         <v>74467</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5677,13 @@
         <v>21917</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>140</v>
+        <v>376</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>280</v>
+        <v>377</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -5701,13 +5692,13 @@
         <v>9686</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>368</v>
+        <v>95</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>372</v>
+        <v>183</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -5716,19 +5707,19 @@
         <v>31603</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>373</v>
+        <v>255</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>374</v>
+        <v>22</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" s="7">
         <v>902</v>
@@ -5737,13 +5728,13 @@
         <v>962420</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -5755,10 +5746,10 @@
         <v>114</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="M34" s="7">
         <v>905</v>
@@ -5767,19 +5758,19 @@
         <v>966460</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7">
         <v>110</v>
@@ -5788,13 +5779,13 @@
         <v>124428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H35" s="7">
         <v>502</v>
@@ -5803,13 +5794,13 @@
         <v>539615</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M35" s="7">
         <v>612</v>
@@ -5818,19 +5809,19 @@
         <v>664043</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7">
         <v>7</v>
@@ -5839,13 +5830,13 @@
         <v>6819</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -5854,13 +5845,13 @@
         <v>3311</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="M36" s="7">
         <v>10</v>
@@ -5869,19 +5860,19 @@
         <v>10130</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7">
         <v>260</v>
@@ -5890,13 +5881,13 @@
         <v>280759</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H37" s="7">
         <v>292</v>
@@ -5905,13 +5896,13 @@
         <v>317195</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M37" s="7">
         <v>552</v>
@@ -5920,19 +5911,19 @@
         <v>597954</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>398</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" s="7">
         <v>731</v>
@@ -5941,28 +5932,28 @@
         <v>790398</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H38" s="7">
         <v>1250</v>
       </c>
       <c r="I38" s="7">
-        <v>1355885</v>
+        <v>1355886</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M38" s="7">
         <v>1981</v>
@@ -5971,13 +5962,13 @@
         <v>2146283</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,28 +5983,28 @@
         <v>2209640</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H39" s="7">
         <v>2110</v>
       </c>
       <c r="I39" s="7">
-        <v>2291555</v>
+        <v>2291556</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M39" s="7">
         <v>4159</v>
@@ -6022,13 +6013,13 @@
         <v>4501196</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,7 +6043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBA7B38-0F5F-4A2A-A868-151C222B615C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CCB806-97E0-4F3B-94B3-63AFAC7FC742}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6069,7 +6060,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6176,13 +6167,13 @@
         <v>1936</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6191,13 +6182,13 @@
         <v>3900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6206,13 +6197,13 @@
         <v>5835</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>410</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6218,13 @@
         <v>5898</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>411</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>368</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>212</v>
+        <v>418</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6242,13 +6233,13 @@
         <v>6402</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>62</v>
+        <v>419</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>418</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6257,13 +6248,13 @@
         <v>12300</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>412</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6269,13 @@
         <v>1016</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6293,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6308,19 +6299,19 @@
         <v>1016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>374</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>310</v>
@@ -6329,13 +6320,13 @@
         <v>301523</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6344,13 +6335,13 @@
         <v>1205</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M7" s="7">
         <v>311</v>
@@ -6359,19 +6350,19 @@
         <v>302727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>53</v>
@@ -6380,13 +6371,13 @@
         <v>50016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>423</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H8" s="7">
         <v>313</v>
@@ -6395,13 +6386,13 @@
         <v>356061</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M8" s="7">
         <v>366</v>
@@ -6410,19 +6401,19 @@
         <v>406077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -6434,10 +6425,10 @@
         <v>114</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>430</v>
+        <v>138</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6446,13 +6437,13 @@
         <v>2009</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>411</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6461,19 +6452,19 @@
         <v>2897</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7">
         <v>72</v>
@@ -6482,13 +6473,13 @@
         <v>73729</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -6497,13 +6488,13 @@
         <v>91432</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -6512,19 +6503,19 @@
         <v>165161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7">
         <v>64</v>
@@ -6533,13 +6524,13 @@
         <v>69487</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -6548,13 +6539,13 @@
         <v>138870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="M11" s="7">
         <v>201</v>
@@ -6563,13 +6554,13 @@
         <v>208357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6575,13 @@
         <v>504493</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>553</v>
@@ -6599,13 +6590,13 @@
         <v>599878</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>1062</v>
@@ -6614,18 +6605,18 @@
         <v>1104371</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6637,13 +6628,13 @@
         <v>1916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6652,13 +6643,13 @@
         <v>4182</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>455</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -6667,13 +6658,13 @@
         <v>6098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6679,13 @@
         <v>11051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -6703,13 +6694,13 @@
         <v>15253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -6718,13 +6709,13 @@
         <v>26304</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6730,13 @@
         <v>9870</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -6754,13 +6745,13 @@
         <v>5327</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -6772,16 +6763,16 @@
         <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>284</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7">
         <v>552</v>
@@ -6790,13 +6781,13 @@
         <v>584998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>453</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6805,10 +6796,10 @@
         <v>2089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>17</v>
@@ -6820,19 +6811,19 @@
         <v>587087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="7">
         <v>30</v>
@@ -6841,13 +6832,13 @@
         <v>29067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -6856,13 +6847,13 @@
         <v>187117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>192</v>
@@ -6871,19 +6862,19 @@
         <v>216185</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -6892,13 +6883,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -6907,13 +6898,13 @@
         <v>1912</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -6922,19 +6913,19 @@
         <v>1912</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="7">
         <v>203</v>
@@ -6943,13 +6934,13 @@
         <v>218026</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>180</v>
@@ -6958,13 +6949,13 @@
         <v>186625</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>383</v>
@@ -6973,19 +6964,19 @@
         <v>404650</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7">
         <v>404</v>
@@ -6994,13 +6985,13 @@
         <v>437205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
         <v>783</v>
@@ -7009,13 +7000,13 @@
         <v>802229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>1187</v>
@@ -7024,13 +7015,13 @@
         <v>1239434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7036,13 @@
         <v>1292132</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <v>1153</v>
@@ -7060,13 +7051,13 @@
         <v>1204735</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M21" s="7">
         <v>2362</v>
@@ -7075,18 +7066,18 @@
         <v>2496867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7098,13 +7089,13 @@
         <v>1511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>212</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -7113,13 +7104,13 @@
         <v>1159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -7128,13 +7119,13 @@
         <v>2669</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>42</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,10 +7143,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7164,13 +7155,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -7179,13 +7170,13 @@
         <v>1026</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7191,13 @@
         <v>6207</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>487</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>58</v>
+        <v>415</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>488</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7215,13 +7206,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7230,19 +7221,19 @@
         <v>6207</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>84</v>
@@ -7251,13 +7242,13 @@
         <v>90279</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7266,13 +7257,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -7281,19 +7272,19 @@
         <v>90279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>13</v>
@@ -7302,13 +7293,13 @@
         <v>13763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>495</v>
+        <v>216</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>496</v>
+        <v>329</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>497</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -7317,13 +7308,13 @@
         <v>26252</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -7332,19 +7323,19 @@
         <v>40014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>501</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
@@ -7353,13 +7344,13 @@
         <v>1907</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7368,13 +7359,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -7383,19 +7374,19 @@
         <v>1907</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>502</v>
+        <v>207</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>503</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" s="7">
         <v>38</v>
@@ -7404,13 +7395,13 @@
         <v>41951</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -7419,13 +7410,13 @@
         <v>30326</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M28" s="7">
         <v>67</v>
@@ -7434,19 +7425,19 @@
         <v>72277</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>510</v>
+        <v>348</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="7">
         <v>170</v>
@@ -7455,13 +7446,13 @@
         <v>189744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H29" s="7">
         <v>259</v>
@@ -7470,13 +7461,13 @@
         <v>269726</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M29" s="7">
         <v>429</v>
@@ -7485,13 +7476,13 @@
         <v>459469</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,13 +7497,13 @@
         <v>346386</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H30" s="7">
         <v>311</v>
@@ -7521,13 +7512,13 @@
         <v>327462</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M30" s="7">
         <v>626</v>
@@ -7536,13 +7527,13 @@
         <v>673848</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,13 +7550,13 @@
         <v>5362</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -7574,13 +7565,13 @@
         <v>9241</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>457</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -7589,13 +7580,13 @@
         <v>14603</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7610,13 +7601,13 @@
         <v>17975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>522</v>
+        <v>278</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -7625,13 +7616,13 @@
         <v>21655</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -7640,13 +7631,13 @@
         <v>39630</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>523</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,13 +7652,13 @@
         <v>17093</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>524</v>
+        <v>183</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>42</v>
+        <v>456</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -7676,13 +7667,13 @@
         <v>5327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
@@ -7691,19 +7682,19 @@
         <v>22420</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>524</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" s="7">
         <v>946</v>
@@ -7712,13 +7703,13 @@
         <v>976799</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -7727,13 +7718,13 @@
         <v>3294</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M34" s="7">
         <v>949</v>
@@ -7742,19 +7733,19 @@
         <v>980093</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7">
         <v>96</v>
@@ -7769,7 +7760,7 @@
         <v>199</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>122</v>
+        <v>526</v>
       </c>
       <c r="H35" s="7">
         <v>497</v>
@@ -7778,13 +7769,13 @@
         <v>569430</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="M35" s="7">
         <v>593</v>
@@ -7793,19 +7784,19 @@
         <v>662276</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>204</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
@@ -7817,10 +7808,10 @@
         <v>12</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -7832,10 +7823,10 @@
         <v>114</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>368</v>
+        <v>95</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -7844,19 +7835,19 @@
         <v>6716</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7">
         <v>313</v>
@@ -7865,13 +7856,13 @@
         <v>333705</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H37" s="7">
         <v>299</v>
@@ -7880,13 +7871,13 @@
         <v>308383</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M37" s="7">
         <v>612</v>
@@ -7895,19 +7886,19 @@
         <v>642088</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" s="7">
         <v>638</v>
@@ -7916,13 +7907,13 @@
         <v>696436</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H38" s="7">
         <v>1179</v>
@@ -7931,13 +7922,13 @@
         <v>1210824</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M38" s="7">
         <v>1817</v>
@@ -7946,13 +7937,13 @@
         <v>1907261</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,13 +7958,13 @@
         <v>2143011</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H39" s="7">
         <v>2017</v>
@@ -7982,13 +7973,13 @@
         <v>2132075</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M39" s="7">
         <v>4050</v>
@@ -7997,13 +7988,13 @@
         <v>4275086</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P74A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{438FC678-B566-4D38-9973-241BD94D58C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4471E55-7F10-477F-8737-D3C8E20960AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72227F2C-AB86-4382-8632-0D7E4E6D08B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72F363AE-F193-49B9-9748-392A92081E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="558">
   <si>
     <t>Población según la situación laboral de su pareja en 2007 (Tasa respuesta: 63,66%)</t>
   </si>
@@ -79,1609 +79,1639 @@
     <t>0,13%</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>Incapacidad/invalidez permanente</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>Sus labores/Ama de casa</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>Jubilado (trabajó anteriormente)</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>Busca primer empleo</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>Está en el paro y ha trabajado antes</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>Trabaja</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>Incapacidad/invalidez permanente</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la situación laboral de su pareja en 2012 (Tasa respuesta: 63,96%)</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>Población según la situación laboral de su pareja en 2016 (Tasa respuesta: 61,82%)</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>Sus labores/Ama de casa</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>Jubilado (trabajó anteriormente)</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>Busca primer empleo</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>Está en el paro y ha trabajado antes</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>Trabaja</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la situación laboral de su pareja en 2012 (Tasa respuesta: 63,96%)</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
+    <t>24,76%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>Población según la situación laboral de su pareja en 2015 (Tasa respuesta: 61,82%)</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>43,18%</t>
   </si>
   <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>46,08%</t>
   </si>
 </sst>
 </file>
@@ -2093,7 +2123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D8D608-6A1F-42F1-B968-66EFBFAAC48C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC490C2D-BDBA-4D70-9070-F9EB38956F2C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2301,16 +2331,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -2319,7 +2349,7 @@
         <v>1962</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
@@ -2355,13 +2385,13 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>533</v>
@@ -2370,13 +2400,13 @@
         <v>521598</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2385,13 +2415,13 @@
         <v>2823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>535</v>
@@ -2400,19 +2430,19 @@
         <v>524421</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>69</v>
@@ -2421,13 +2451,13 @@
         <v>65120</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>417</v>
@@ -2436,13 +2466,13 @@
         <v>414437</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>486</v>
@@ -2451,19 +2481,19 @@
         <v>479556</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2478,7 +2508,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2493,7 +2523,7 @@
         <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2502,19 +2532,19 @@
         <v>1060</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="7">
         <v>14</v>
@@ -2523,13 +2553,13 @@
         <v>13810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2538,13 +2568,13 @@
         <v>22442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -2553,19 +2583,19 @@
         <v>36252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7">
         <v>120</v>
@@ -2574,13 +2604,13 @@
         <v>125613</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>355</v>
@@ -2589,13 +2619,13 @@
         <v>363037</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>475</v>
@@ -2604,13 +2634,13 @@
         <v>488650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2655,13 @@
         <v>738910</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>814</v>
@@ -2640,13 +2670,13 @@
         <v>821797</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>1564</v>
@@ -2655,18 +2685,18 @@
         <v>1560706</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2678,13 +2708,13 @@
         <v>3870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2693,13 +2723,13 @@
         <v>5772</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2708,13 +2738,13 @@
         <v>9642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2759,13 @@
         <v>1555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2747,10 +2777,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2759,19 +2789,19 @@
         <v>8751</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
         <v>7</v>
@@ -2780,13 +2810,13 @@
         <v>9705</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2801,7 +2831,7 @@
         <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -2810,19 +2840,19 @@
         <v>9705</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7">
         <v>560</v>
@@ -2831,13 +2861,13 @@
         <v>571086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2846,13 +2876,13 @@
         <v>1864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>562</v>
@@ -2861,19 +2891,19 @@
         <v>572950</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
         <v>13</v>
@@ -2882,13 +2912,13 @@
         <v>13929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -2897,13 +2927,13 @@
         <v>87487</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -2912,19 +2942,19 @@
         <v>101416</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -2933,13 +2963,13 @@
         <v>1826</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2954,7 +2984,7 @@
         <v>33</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -2963,19 +2993,19 @@
         <v>1826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="7">
         <v>56</v>
@@ -2984,13 +3014,13 @@
         <v>58887</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -2999,13 +3029,13 @@
         <v>38074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -3014,19 +3044,19 @@
         <v>96961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" s="7">
         <v>358</v>
@@ -3035,13 +3065,13 @@
         <v>376620</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>832</v>
@@ -3050,28 +3080,28 @@
         <v>862333</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>1190</v>
       </c>
       <c r="N20" s="7">
-        <v>1238954</v>
+        <v>1238953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3116,13 @@
         <v>1037478</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>969</v>
@@ -3101,33 +3131,33 @@
         <v>1002726</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>1968</v>
       </c>
       <c r="N21" s="7">
-        <v>2040205</v>
+        <v>2040204</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3139,13 +3169,13 @@
         <v>1871</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3160,7 +3190,7 @@
         <v>33</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3169,13 +3199,13 @@
         <v>1871</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,7 +3226,7 @@
         <v>33</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3205,13 +3235,13 @@
         <v>976</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3220,19 +3250,19 @@
         <v>976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
@@ -3241,13 +3271,13 @@
         <v>4518</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3262,7 +3292,7 @@
         <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -3271,19 +3301,19 @@
         <v>4518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>123</v>
@@ -3292,13 +3322,13 @@
         <v>128522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3313,7 +3343,7 @@
         <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -3322,19 +3352,19 @@
         <v>128522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>11</v>
@@ -3343,13 +3373,13 @@
         <v>13684</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -3358,13 +3388,13 @@
         <v>14781</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -3373,19 +3403,19 @@
         <v>28465</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -3400,7 +3430,7 @@
         <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3415,7 +3445,7 @@
         <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3430,13 +3460,13 @@
         <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7">
         <v>8</v>
@@ -3445,13 +3475,13 @@
         <v>8789</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3460,13 +3490,13 @@
         <v>2966</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -3475,19 +3505,19 @@
         <v>11755</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" s="7">
         <v>196</v>
@@ -3496,13 +3526,13 @@
         <v>206056</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>250</v>
@@ -3511,13 +3541,13 @@
         <v>268627</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>446</v>
@@ -3526,13 +3556,13 @@
         <v>474683</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,16 +3574,16 @@
         <v>345</v>
       </c>
       <c r="D30" s="7">
-        <v>363440</v>
+        <v>363441</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H30" s="7">
         <v>268</v>
@@ -3562,13 +3592,13 @@
         <v>287350</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M30" s="7">
         <v>613</v>
@@ -3577,13 +3607,13 @@
         <v>650791</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3630,13 @@
         <v>9416</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -3615,13 +3645,13 @@
         <v>11670</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -3633,10 +3663,10 @@
         <v>11</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,7 +3684,7 @@
         <v>182</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>183</v>
@@ -3666,13 +3696,13 @@
         <v>20272</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M32" s="7">
         <v>29</v>
@@ -3681,19 +3711,19 @@
         <v>28959</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7">
         <v>14</v>
@@ -3702,13 +3732,13 @@
         <v>16185</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3723,7 +3753,7 @@
         <v>33</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M33" s="7">
         <v>14</v>
@@ -3732,19 +3762,19 @@
         <v>16185</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7">
         <v>1216</v>
@@ -3753,13 +3783,13 @@
         <v>1221206</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -3768,13 +3798,13 @@
         <v>4687</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M34" s="7">
         <v>1220</v>
@@ -3783,19 +3813,19 @@
         <v>1225893</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7">
         <v>93</v>
@@ -3804,13 +3834,13 @@
         <v>92733</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H35" s="7">
         <v>515</v>
@@ -3819,13 +3849,13 @@
         <v>516705</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M35" s="7">
         <v>608</v>
@@ -3834,19 +3864,19 @@
         <v>609438</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -3855,13 +3885,13 @@
         <v>1826</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3870,13 +3900,13 @@
         <v>1060</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3885,19 +3915,19 @@
         <v>2886</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
         <v>78</v>
@@ -3948,7 +3978,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C38" s="7">
         <v>674</v>
@@ -4008,13 +4038,13 @@
         <v>2139829</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H39" s="7">
         <v>2051</v>
@@ -4023,13 +4053,13 @@
         <v>2111873</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M39" s="7">
         <v>4145</v>
@@ -4038,13 +4068,13 @@
         <v>4251702</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,7 +4098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E9EED-2FA1-4245-8EE3-0AEA028053A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCD6E65-B065-43D3-871C-3A4EB012E809}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4213,7 +4243,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4228,7 +4258,7 @@
         <v>31</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4273,13 @@
         <v>7319</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -4258,13 +4288,13 @@
         <v>28223</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -4273,19 +4303,19 @@
         <v>35542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
@@ -4294,13 +4324,13 @@
         <v>3870</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4309,13 +4339,13 @@
         <v>2878</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4324,19 +4354,19 @@
         <v>6747</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>363</v>
@@ -4345,13 +4375,13 @@
         <v>390908</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4366,7 +4396,7 @@
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="M7" s="7">
         <v>364</v>
@@ -4375,19 +4405,19 @@
         <v>392002</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>80</v>
@@ -4396,13 +4426,13 @@
         <v>87025</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>399</v>
@@ -4411,13 +4441,13 @@
         <v>421410</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>479</v>
@@ -4426,19 +4456,19 @@
         <v>508436</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -4453,7 +4483,7 @@
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4462,13 +4492,13 @@
         <v>2127</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -4477,19 +4507,19 @@
         <v>4198</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="7">
         <v>69</v>
@@ -4498,13 +4528,13 @@
         <v>73672</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>104</v>
@@ -4513,13 +4543,13 @@
         <v>112210</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -4528,19 +4558,19 @@
         <v>185882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7">
         <v>119</v>
@@ -4549,13 +4579,13 @@
         <v>126621</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>265</v>
@@ -4564,13 +4594,13 @@
         <v>286951</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>384</v>
@@ -4579,13 +4609,13 @@
         <v>413572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4630,13 @@
         <v>691486</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>800</v>
@@ -4615,13 +4645,13 @@
         <v>856967</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>1444</v>
@@ -4630,18 +4660,18 @@
         <v>1548454</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4653,13 +4683,13 @@
         <v>4458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4674,7 +4704,7 @@
         <v>33</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4683,13 +4713,13 @@
         <v>4458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4734,13 @@
         <v>7138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -4719,13 +4749,13 @@
         <v>26018</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4734,19 +4764,19 @@
         <v>33156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
         <v>8</v>
@@ -4755,13 +4785,13 @@
         <v>7626</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4770,13 +4800,13 @@
         <v>5826</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -4785,19 +4815,19 @@
         <v>13452</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7">
         <v>476</v>
@@ -4806,13 +4836,13 @@
         <v>503738</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4821,13 +4851,13 @@
         <v>2946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>478</v>
@@ -4836,19 +4866,19 @@
         <v>506684</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
         <v>23</v>
@@ -4857,13 +4887,13 @@
         <v>25946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4872,13 +4902,13 @@
         <v>98242</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -4887,19 +4917,19 @@
         <v>124188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -4908,13 +4938,13 @@
         <v>4749</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>305</v>
+        <v>98</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>307</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4923,13 +4953,13 @@
         <v>1184</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -4938,19 +4968,19 @@
         <v>5933</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="7">
         <v>168</v>
@@ -4959,13 +4989,13 @@
         <v>179118</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -4974,13 +5004,13 @@
         <v>187458</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>340</v>
@@ -4989,19 +5019,19 @@
         <v>366576</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" s="7">
         <v>447</v>
@@ -5010,13 +5040,13 @@
         <v>480433</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>759</v>
@@ -5025,13 +5055,13 @@
         <v>815601</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>1206</v>
@@ -5040,13 +5070,13 @@
         <v>1296034</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5091,13 @@
         <v>1213206</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>1047</v>
@@ -5076,13 +5106,13 @@
         <v>1137274</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>2183</v>
@@ -5091,18 +5121,18 @@
         <v>2350480</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5120,7 +5150,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5129,13 +5159,13 @@
         <v>1857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -5144,13 +5174,13 @@
         <v>3723</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5195,13 @@
         <v>2117</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -5183,10 +5213,10 @@
         <v>27</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -5195,19 +5225,19 @@
         <v>5769</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>8</v>
@@ -5216,13 +5246,13 @@
         <v>10422</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5231,13 +5261,13 @@
         <v>982</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>59</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>61</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -5246,19 +5276,19 @@
         <v>11404</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>208</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>63</v>
@@ -5267,13 +5297,13 @@
         <v>67774</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5288,7 +5318,7 @@
         <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5297,19 +5327,19 @@
         <v>67774</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>7</v>
@@ -5318,10 +5348,10 @@
         <v>11457</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>345</v>
@@ -5351,16 +5381,16 @@
         <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -5375,7 +5405,7 @@
         <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -5390,7 +5420,7 @@
         <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5405,13 +5435,13 @@
         <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>352</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7">
         <v>23</v>
@@ -5420,13 +5450,13 @@
         <v>27969</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5435,13 +5465,13 @@
         <v>17527</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -5450,19 +5480,19 @@
         <v>45496</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" s="7">
         <v>165</v>
@@ -5471,13 +5501,13 @@
         <v>183343</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H29" s="7">
         <v>226</v>
@@ -5486,13 +5516,13 @@
         <v>253334</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M29" s="7">
         <v>391</v>
@@ -5501,13 +5531,13 @@
         <v>436677</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5552,13 @@
         <v>304948</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H30" s="7">
         <v>263</v>
@@ -5537,13 +5567,13 @@
         <v>297314</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M30" s="7">
         <v>532</v>
@@ -5552,13 +5582,13 @@
         <v>602262</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5605,13 @@
         <v>6324</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>341</v>
+        <v>14</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -5590,13 +5620,13 @@
         <v>3932</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>277</v>
+        <v>88</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -5605,13 +5635,13 @@
         <v>10256</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5656,13 @@
         <v>16574</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>89</v>
+        <v>368</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H32" s="7">
         <v>49</v>
@@ -5641,13 +5671,13 @@
         <v>57892</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>372</v>
+        <v>26</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>373</v>
+        <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -5656,19 +5686,19 @@
         <v>74467</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7">
         <v>20</v>
@@ -5677,13 +5707,13 @@
         <v>21917</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>377</v>
+        <v>17</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -5692,13 +5722,13 @@
         <v>9686</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>183</v>
+        <v>374</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -5707,34 +5737,34 @@
         <v>31603</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>164</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7">
         <v>902</v>
       </c>
       <c r="D34" s="7">
-        <v>962420</v>
+        <v>962421</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -5743,13 +5773,13 @@
         <v>4039</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M34" s="7">
         <v>905</v>
@@ -5758,19 +5788,19 @@
         <v>966460</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7">
         <v>110</v>
@@ -5779,13 +5809,13 @@
         <v>124428</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H35" s="7">
         <v>502</v>
@@ -5794,13 +5824,13 @@
         <v>539615</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M35" s="7">
         <v>612</v>
@@ -5809,19 +5839,19 @@
         <v>664043</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7">
         <v>7</v>
@@ -5830,13 +5860,13 @@
         <v>6819</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>276</v>
+        <v>17</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -5845,13 +5875,13 @@
         <v>3311</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c r="M36" s="7">
         <v>10</v>
@@ -5860,19 +5890,19 @@
         <v>10130</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
         <v>260</v>
@@ -5881,13 +5911,13 @@
         <v>280759</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>398</v>
+        <v>205</v>
       </c>
       <c r="H37" s="7">
         <v>292</v>
@@ -5896,13 +5926,13 @@
         <v>317195</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M37" s="7">
         <v>552</v>
@@ -5911,19 +5941,19 @@
         <v>597954</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C38" s="7">
         <v>731</v>
@@ -5932,13 +5962,13 @@
         <v>790398</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H38" s="7">
         <v>1250</v>
@@ -5947,13 +5977,13 @@
         <v>1355886</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M38" s="7">
         <v>1981</v>
@@ -5962,13 +5992,13 @@
         <v>2146283</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,16 +6010,16 @@
         <v>2049</v>
       </c>
       <c r="D39" s="7">
-        <v>2209640</v>
+        <v>2209641</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H39" s="7">
         <v>2110</v>
@@ -5998,13 +6028,13 @@
         <v>2291556</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M39" s="7">
         <v>4159</v>
@@ -6013,13 +6043,13 @@
         <v>4501196</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,7 +6073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CCB806-97E0-4F3B-94B3-63AFAC7FC742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF5995A-90D8-4F12-914F-68CB89DF3C00}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6060,7 +6090,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6167,13 +6197,13 @@
         <v>1936</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6182,13 +6212,13 @@
         <v>3900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>415</v>
+        <v>57</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6197,13 +6227,13 @@
         <v>5835</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>417</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,13 +6248,13 @@
         <v>5898</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>415</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6233,10 +6263,10 @@
         <v>6402</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>418</v>
@@ -6248,19 +6278,19 @@
         <v>12300</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -6269,7 +6299,7 @@
         <v>1016</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
@@ -6299,7 +6329,7 @@
         <v>1016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
@@ -6311,7 +6341,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>310</v>
@@ -6335,13 +6365,13 @@
         <v>1205</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="M7" s="7">
         <v>311</v>
@@ -6350,19 +6380,19 @@
         <v>302727</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>53</v>
@@ -6371,10 +6401,10 @@
         <v>50016</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>430</v>
@@ -6389,10 +6419,10 @@
         <v>431</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>432</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M8" s="7">
         <v>366</v>
@@ -6401,19 +6431,19 @@
         <v>406077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -6422,13 +6452,13 @@
         <v>888</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6437,13 +6467,13 @@
         <v>2009</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>335</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>415</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6452,19 +6482,19 @@
         <v>2897</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>436</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="7">
         <v>72</v>
@@ -6506,16 +6536,16 @@
         <v>443</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7">
         <v>64</v>
@@ -6524,13 +6554,13 @@
         <v>69487</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -6539,13 +6569,13 @@
         <v>138870</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M11" s="7">
         <v>201</v>
@@ -6554,13 +6584,13 @@
         <v>208357</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6605,13 @@
         <v>504493</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>553</v>
@@ -6590,13 +6620,13 @@
         <v>599878</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>1062</v>
@@ -6605,18 +6635,18 @@
         <v>1104371</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6628,13 +6658,13 @@
         <v>1916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6646,10 +6676,10 @@
         <v>421</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -6661,10 +6691,10 @@
         <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6709,13 @@
         <v>11051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -6694,13 +6724,13 @@
         <v>15253</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -6709,19 +6739,19 @@
         <v>26304</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
         <v>10</v>
@@ -6730,13 +6760,13 @@
         <v>9870</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -6745,13 +6775,13 @@
         <v>5327</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>416</v>
+        <v>307</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>460</v>
+        <v>184</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -6763,16 +6793,16 @@
         <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>335</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>461</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7">
         <v>552</v>
@@ -6781,13 +6811,13 @@
         <v>584998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>459</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6796,13 +6826,13 @@
         <v>2089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>554</v>
@@ -6811,19 +6841,19 @@
         <v>587087</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
         <v>30</v>
@@ -6832,13 +6862,13 @@
         <v>29067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -6847,13 +6877,13 @@
         <v>187117</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>192</v>
@@ -6862,19 +6892,19 @@
         <v>216185</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -6889,7 +6919,7 @@
         <v>33</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>416</v>
+        <v>307</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -6898,13 +6928,13 @@
         <v>1912</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>416</v>
+        <v>307</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -6913,19 +6943,19 @@
         <v>1912</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="7">
         <v>203</v>
@@ -6934,13 +6964,13 @@
         <v>218026</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>180</v>
@@ -6949,13 +6979,13 @@
         <v>186625</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>383</v>
@@ -6964,19 +6994,19 @@
         <v>404650</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" s="7">
         <v>404</v>
@@ -6985,13 +7015,13 @@
         <v>437205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>76</v>
+        <v>482</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>483</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H20" s="7">
         <v>783</v>
@@ -7000,13 +7030,13 @@
         <v>802229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M20" s="7">
         <v>1187</v>
@@ -7015,13 +7045,13 @@
         <v>1239434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,13 +7066,13 @@
         <v>1292132</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>1153</v>
@@ -7051,13 +7081,13 @@
         <v>1204735</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>2362</v>
@@ -7066,18 +7096,18 @@
         <v>2496867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7089,13 +7119,13 @@
         <v>1511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>234</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -7110,7 +7140,7 @@
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>491</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -7119,13 +7149,13 @@
         <v>2669</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>394</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>456</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,7 +7176,7 @@
         <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7161,7 +7191,7 @@
         <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -7170,19 +7200,19 @@
         <v>1026</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -7191,13 +7221,13 @@
         <v>6207</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7212,7 +7242,7 @@
         <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7221,19 +7251,19 @@
         <v>6207</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>458</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>84</v>
@@ -7242,13 +7272,13 @@
         <v>90279</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7263,7 +7293,7 @@
         <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -7272,19 +7302,19 @@
         <v>90279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>13</v>
@@ -7293,13 +7323,13 @@
         <v>13763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>216</v>
+        <v>499</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>329</v>
+        <v>500</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -7308,13 +7338,13 @@
         <v>26252</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -7323,19 +7353,19 @@
         <v>40014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>257</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
@@ -7344,13 +7374,13 @@
         <v>1907</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>375</v>
+        <v>507</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7365,7 +7395,7 @@
         <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -7374,19 +7404,19 @@
         <v>1907</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>207</v>
+        <v>508</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7">
         <v>38</v>
@@ -7395,13 +7425,13 @@
         <v>41951</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -7410,13 +7440,13 @@
         <v>30326</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="M28" s="7">
         <v>67</v>
@@ -7425,19 +7455,19 @@
         <v>72277</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>348</v>
+        <v>515</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" s="7">
         <v>170</v>
@@ -7446,13 +7476,13 @@
         <v>189744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="H29" s="7">
         <v>259</v>
@@ -7461,13 +7491,13 @@
         <v>269726</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="M29" s="7">
         <v>429</v>
@@ -7476,13 +7506,13 @@
         <v>459469</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,13 +7527,13 @@
         <v>346386</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H30" s="7">
         <v>311</v>
@@ -7512,13 +7542,13 @@
         <v>327462</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M30" s="7">
         <v>626</v>
@@ -7527,13 +7557,13 @@
         <v>673848</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,13 +7580,13 @@
         <v>5362</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -7565,13 +7595,13 @@
         <v>9241</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -7580,13 +7610,13 @@
         <v>14603</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7601,13 +7631,13 @@
         <v>17975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>32</v>
+        <v>527</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>519</v>
+        <v>380</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>278</v>
+        <v>528</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -7616,13 +7646,13 @@
         <v>21655</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>277</v>
+        <v>529</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>414</v>
+        <v>530</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -7631,19 +7661,19 @@
         <v>39630</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7">
         <v>17</v>
@@ -7652,13 +7682,13 @@
         <v>17093</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>183</v>
+        <v>526</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -7667,13 +7697,13 @@
         <v>5327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>277</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
@@ -7682,19 +7712,19 @@
         <v>22420</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>382</v>
+        <v>531</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>289</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7">
         <v>946</v>
@@ -7703,13 +7733,13 @@
         <v>976799</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -7718,13 +7748,13 @@
         <v>3294</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="M34" s="7">
         <v>949</v>
@@ -7733,19 +7763,19 @@
         <v>980093</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>523</v>
+        <v>247</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" s="7">
         <v>96</v>
@@ -7754,13 +7784,13 @@
         <v>92846</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>199</v>
+        <v>336</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="H35" s="7">
         <v>497</v>
@@ -7769,13 +7799,13 @@
         <v>569430</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>528</v>
+        <v>196</v>
       </c>
       <c r="M35" s="7">
         <v>593</v>
@@ -7784,19 +7814,19 @@
         <v>662276</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>204</v>
+        <v>539</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
@@ -7808,10 +7838,10 @@
         <v>12</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -7820,13 +7850,13 @@
         <v>3921</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -7835,19 +7865,19 @@
         <v>6716</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>416</v>
+        <v>307</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
         <v>313</v>
@@ -7856,13 +7886,13 @@
         <v>333705</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="H37" s="7">
         <v>299</v>
@@ -7871,13 +7901,13 @@
         <v>308383</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>533</v>
+        <v>314</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="M37" s="7">
         <v>612</v>
@@ -7886,19 +7916,19 @@
         <v>642088</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C38" s="7">
         <v>638</v>
@@ -7907,13 +7937,13 @@
         <v>696436</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="H38" s="7">
         <v>1179</v>
@@ -7922,13 +7952,13 @@
         <v>1210824</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="M38" s="7">
         <v>1817</v>
@@ -7937,13 +7967,13 @@
         <v>1907261</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7958,13 +7988,13 @@
         <v>2143011</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H39" s="7">
         <v>2017</v>
@@ -7973,13 +8003,13 @@
         <v>2132075</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M39" s="7">
         <v>4050</v>
@@ -7988,13 +8018,13 @@
         <v>4275086</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P74A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4471E55-7F10-477F-8737-D3C8E20960AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97A68D0-B178-4154-BE00-5D5818464F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72F363AE-F193-49B9-9748-392A92081E3C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC72515F-8B9E-4CB0-8B05-098DBD4BA6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="551">
   <si>
     <t>Población según la situación laboral de su pareja en 2007 (Tasa respuesta: 63,66%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>0,72%</t>
@@ -88,1630 +88,1609 @@
     <t>0,25%</t>
   </si>
   <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>Incapacidad/invalidez permanente</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Sus labores/Ama de casa</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>Jubilado (trabajó anteriormente)</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>Busca primer empleo</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>Está en el paro y ha trabajado antes</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>Trabaja</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>Incapacidad/invalidez permanente</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la situación laboral de su pareja en 2012 (Tasa respuesta: 63,96%)</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>Estudiante</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>Sus labores/Ama de casa</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>Jubilado (trabajó anteriormente)</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>Busca primer empleo</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>Está en el paro y ha trabajado antes</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>Trabaja</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>Población según la situación laboral de su pareja en 2016 (Tasa respuesta: 61,82%)</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la situación laboral de su pareja en 2012 (Tasa respuesta: 63,96%)</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>Población según la situación laboral de su pareja en 2016 (Tasa respuesta: 61,82%)</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
   </si>
   <si>
     <t>56,79%</t>
   </si>
   <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
   </si>
   <si>
     <t>44,61%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC490C2D-BDBA-4D70-9070-F9EB38956F2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B625E2EE-2FDC-4402-AB15-FD587E1F0A2C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2331,16 +2310,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -2349,13 +2328,13 @@
         <v>1962</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2364,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2382,16 +2361,16 @@
         <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>533</v>
@@ -2400,13 +2379,13 @@
         <v>521598</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2415,13 +2394,13 @@
         <v>2823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>535</v>
@@ -2430,19 +2409,19 @@
         <v>524421</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>69</v>
@@ -2451,13 +2430,13 @@
         <v>65120</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>417</v>
@@ -2466,13 +2445,13 @@
         <v>414437</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>486</v>
@@ -2481,19 +2460,19 @@
         <v>479556</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2502,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2520,10 +2499,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2532,13 +2511,13 @@
         <v>1060</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2708,7 @@
         <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2738,13 +2717,13 @@
         <v>9642</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2738,13 @@
         <v>1555</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2780,7 +2759,7 @@
         <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2789,19 +2768,19 @@
         <v>8751</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7">
         <v>7</v>
@@ -2810,13 +2789,13 @@
         <v>9705</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2825,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>86</v>
@@ -2840,19 +2819,19 @@
         <v>9705</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7">
         <v>560</v>
@@ -2861,13 +2840,13 @@
         <v>571086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2876,13 +2855,13 @@
         <v>1864</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>562</v>
@@ -2891,19 +2870,19 @@
         <v>572950</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7">
         <v>13</v>
@@ -2912,13 +2891,13 @@
         <v>13929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -2927,13 +2906,13 @@
         <v>87487</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -2942,19 +2921,19 @@
         <v>101416</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -2963,13 +2942,13 @@
         <v>1826</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2978,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>86</v>
@@ -2996,10 +2975,10 @@
         <v>83</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +2993,13 @@
         <v>58887</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -3029,13 +3008,13 @@
         <v>38074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -3044,13 +3023,13 @@
         <v>96961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,16 +3041,16 @@
         <v>358</v>
       </c>
       <c r="D20" s="7">
-        <v>376620</v>
+        <v>376621</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>832</v>
@@ -3080,28 +3059,28 @@
         <v>862333</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>1190</v>
       </c>
       <c r="N20" s="7">
-        <v>1238953</v>
+        <v>1238954</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,7 +3092,7 @@
         <v>999</v>
       </c>
       <c r="D21" s="7">
-        <v>1037478</v>
+        <v>1037479</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>80</v>
@@ -3143,7 +3122,7 @@
         <v>1968</v>
       </c>
       <c r="N21" s="7">
-        <v>2040204</v>
+        <v>2040205</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>80</v>
@@ -3157,7 +3136,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3169,13 +3148,13 @@
         <v>1871</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3184,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3199,13 +3178,13 @@
         <v>1871</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3235,13 +3214,13 @@
         <v>976</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3250,19 +3229,19 @@
         <v>976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
@@ -3271,13 +3250,13 @@
         <v>4518</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3286,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -3301,19 +3280,19 @@
         <v>4518</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>123</v>
@@ -3322,13 +3301,13 @@
         <v>128522</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3337,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -3352,19 +3331,19 @@
         <v>128522</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>11</v>
@@ -3373,13 +3352,13 @@
         <v>13684</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -3388,13 +3367,13 @@
         <v>14781</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -3403,19 +3382,19 @@
         <v>28465</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -3424,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3439,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3454,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>92</v>
@@ -3475,13 +3454,13 @@
         <v>8789</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -3493,10 +3472,10 @@
         <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -3505,13 +3484,13 @@
         <v>11755</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3505,13 @@
         <v>206056</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>250</v>
@@ -3541,13 +3520,13 @@
         <v>268627</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>446</v>
@@ -3556,13 +3535,13 @@
         <v>474683</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,7 +3553,7 @@
         <v>345</v>
       </c>
       <c r="D30" s="7">
-        <v>363441</v>
+        <v>363440</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>80</v>
@@ -3630,10 +3609,10 @@
         <v>9416</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>181</v>
@@ -3645,10 +3624,10 @@
         <v>11670</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>21</v>
@@ -3663,10 +3642,10 @@
         <v>11</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3660,13 @@
         <v>8687</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -3696,10 +3675,10 @@
         <v>20272</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>185</v>
@@ -3714,16 +3693,16 @@
         <v>186</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="7">
         <v>14</v>
@@ -3732,10 +3711,10 @@
         <v>16185</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>189</v>
@@ -3747,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>83</v>
@@ -3765,16 +3744,16 @@
         <v>190</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>1216</v>
@@ -3798,13 +3777,13 @@
         <v>4687</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M34" s="7">
         <v>1220</v>
@@ -3813,19 +3792,19 @@
         <v>1225893</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="7">
         <v>93</v>
@@ -3834,13 +3813,13 @@
         <v>92733</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H35" s="7">
         <v>515</v>
@@ -3849,13 +3828,13 @@
         <v>516705</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M35" s="7">
         <v>608</v>
@@ -3864,19 +3843,19 @@
         <v>609438</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -3888,10 +3867,10 @@
         <v>83</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3900,13 +3879,13 @@
         <v>1060</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3915,13 +3894,13 @@
         <v>2886</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,7 +4077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCD6E65-B065-43D3-871C-3A4EB012E809}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C72914B-410E-4C0E-BAC5-C4A8F8C3BB63}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4222,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>18</v>
@@ -4237,13 +4216,13 @@
         <v>2075</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4255,10 +4234,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4252,13 @@
         <v>7319</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -4288,13 +4267,13 @@
         <v>28223</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -4303,19 +4282,19 @@
         <v>35542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
@@ -4324,13 +4303,13 @@
         <v>3870</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4339,13 +4318,13 @@
         <v>2878</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4354,19 +4333,19 @@
         <v>6747</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>363</v>
@@ -4375,13 +4354,13 @@
         <v>390908</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4393,10 +4372,10 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>364</v>
@@ -4405,19 +4384,19 @@
         <v>392002</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>80</v>
@@ -4426,13 +4405,13 @@
         <v>87025</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>399</v>
@@ -4441,13 +4420,13 @@
         <v>421410</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>479</v>
@@ -4456,19 +4435,19 @@
         <v>508436</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -4480,10 +4459,10 @@
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4495,10 +4474,10 @@
         <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -4507,10 +4486,10 @@
         <v>4198</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>186</v>
@@ -4528,13 +4507,13 @@
         <v>73672</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>104</v>
@@ -4543,13 +4522,13 @@
         <v>112210</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -4558,13 +4537,13 @@
         <v>185882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4558,13 @@
         <v>126621</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>265</v>
@@ -4594,13 +4573,13 @@
         <v>286951</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
         <v>384</v>
@@ -4609,13 +4588,13 @@
         <v>413572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,10 +4665,10 @@
         <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4698,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4713,13 +4692,13 @@
         <v>4458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4713,13 @@
         <v>7138</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -4749,13 +4728,13 @@
         <v>26018</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4764,19 +4743,19 @@
         <v>33156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7">
         <v>8</v>
@@ -4785,13 +4764,13 @@
         <v>7626</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4800,13 +4779,13 @@
         <v>5826</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -4815,19 +4794,19 @@
         <v>13452</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7">
         <v>476</v>
@@ -4836,13 +4815,13 @@
         <v>503738</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4851,13 +4830,13 @@
         <v>2946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>478</v>
@@ -4866,19 +4845,19 @@
         <v>506684</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7">
         <v>23</v>
@@ -4887,13 +4866,13 @@
         <v>25946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -4902,13 +4881,13 @@
         <v>98242</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -4917,19 +4896,19 @@
         <v>124188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -4938,13 +4917,13 @@
         <v>4749</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4953,13 +4932,13 @@
         <v>1184</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -4971,10 +4950,10 @@
         <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4968,13 @@
         <v>179118</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -5004,13 +4983,13 @@
         <v>187458</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>340</v>
@@ -5019,13 +4998,13 @@
         <v>366576</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5019,13 @@
         <v>480433</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>759</v>
@@ -5055,13 +5034,13 @@
         <v>815601</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>1206</v>
@@ -5070,13 +5049,13 @@
         <v>1296034</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,7 +5111,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5147,10 +5126,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5159,13 +5138,13 @@
         <v>1857</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -5174,13 +5153,13 @@
         <v>3723</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5174,13 @@
         <v>2117</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -5213,10 +5192,10 @@
         <v>27</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -5225,19 +5204,19 @@
         <v>5769</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>8</v>
@@ -5246,13 +5225,13 @@
         <v>10422</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -5261,13 +5240,13 @@
         <v>982</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>59</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -5276,19 +5255,19 @@
         <v>11404</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>331</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>63</v>
@@ -5297,13 +5276,13 @@
         <v>67774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5312,13 +5291,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -5327,19 +5306,19 @@
         <v>67774</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>7</v>
@@ -5348,13 +5327,13 @@
         <v>11457</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5363,13 +5342,13 @@
         <v>19963</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -5378,19 +5357,19 @@
         <v>31419</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -5399,13 +5378,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -5414,13 +5393,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5429,13 +5408,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>120</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5429,13 @@
         <v>27969</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5465,13 +5444,13 @@
         <v>17527</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M28" s="7">
         <v>39</v>
@@ -5480,13 +5459,13 @@
         <v>45496</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5480,13 @@
         <v>183343</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H29" s="7">
         <v>226</v>
@@ -5516,13 +5495,13 @@
         <v>253334</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M29" s="7">
         <v>391</v>
@@ -5531,13 +5510,13 @@
         <v>436677</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,13 +5584,13 @@
         <v>6324</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -5620,13 +5599,13 @@
         <v>3932</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -5635,13 +5614,13 @@
         <v>10256</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>281</v>
+        <v>88</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>83</v>
+        <v>367</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5635,13 @@
         <v>16574</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="H32" s="7">
         <v>49</v>
@@ -5671,10 +5650,10 @@
         <v>57892</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>23</v>
+        <v>369</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>370</v>
@@ -5686,19 +5665,19 @@
         <v>74467</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>371</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>371</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="7">
         <v>20</v>
@@ -5707,13 +5686,13 @@
         <v>21917</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>372</v>
+        <v>140</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>373</v>
+        <v>233</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -5722,13 +5701,13 @@
         <v>9686</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -5737,34 +5716,34 @@
         <v>31603</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>22</v>
+        <v>374</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>376</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>902</v>
       </c>
       <c r="D34" s="7">
-        <v>962421</v>
+        <v>962420</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -5773,13 +5752,13 @@
         <v>4039</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>380</v>
+        <v>96</v>
       </c>
       <c r="M34" s="7">
         <v>905</v>
@@ -5788,19 +5767,19 @@
         <v>966460</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="7">
         <v>110</v>
@@ -5809,13 +5788,13 @@
         <v>124428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H35" s="7">
         <v>502</v>
@@ -5824,13 +5803,13 @@
         <v>539615</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M35" s="7">
         <v>612</v>
@@ -5839,19 +5818,19 @@
         <v>664043</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7">
         <v>7</v>
@@ -5875,13 +5854,13 @@
         <v>3311</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>10</v>
@@ -5890,13 +5869,13 @@
         <v>10130</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>281</v>
+        <v>88</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>394</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5890,13 @@
         <v>280759</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>205</v>
+        <v>392</v>
       </c>
       <c r="H37" s="7">
         <v>292</v>
@@ -5926,13 +5905,13 @@
         <v>317195</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M37" s="7">
         <v>552</v>
@@ -5941,13 +5920,13 @@
         <v>597954</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,28 +5941,28 @@
         <v>790398</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H38" s="7">
         <v>1250</v>
       </c>
       <c r="I38" s="7">
-        <v>1355886</v>
+        <v>1355885</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M38" s="7">
         <v>1981</v>
@@ -5992,13 +5971,13 @@
         <v>2146283</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,7 +5989,7 @@
         <v>2049</v>
       </c>
       <c r="D39" s="7">
-        <v>2209641</v>
+        <v>2209640</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>80</v>
@@ -6025,7 +6004,7 @@
         <v>2110</v>
       </c>
       <c r="I39" s="7">
-        <v>2291556</v>
+        <v>2291555</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>80</v>
@@ -6073,7 +6052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF5995A-90D8-4F12-914F-68CB89DF3C00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C13677-B5E2-43D4-B689-C2E19294C258}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6090,7 +6069,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6200,10 +6179,10 @@
         <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>413</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6212,13 +6191,13 @@
         <v>3900</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -6227,13 +6206,13 @@
         <v>5835</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,13 +6227,13 @@
         <v>5898</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>368</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>416</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6263,13 +6242,13 @@
         <v>6402</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>417</v>
+        <v>62</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>418</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6278,19 +6257,19 @@
         <v>12300</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>84</v>
+        <v>412</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -6302,10 +6281,10 @@
         <v>86</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6314,13 +6293,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6332,16 +6311,16 @@
         <v>83</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>310</v>
@@ -6350,13 +6329,13 @@
         <v>301523</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6368,10 +6347,10 @@
         <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>62</v>
+        <v>418</v>
       </c>
       <c r="M7" s="7">
         <v>311</v>
@@ -6380,19 +6359,19 @@
         <v>302727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>53</v>
@@ -6401,13 +6380,13 @@
         <v>50016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H8" s="7">
         <v>313</v>
@@ -6416,13 +6395,13 @@
         <v>356061</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>432</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M8" s="7">
         <v>366</v>
@@ -6431,19 +6410,19 @@
         <v>406077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -6452,13 +6431,13 @@
         <v>888</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>145</v>
+        <v>430</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6467,13 +6446,13 @@
         <v>2009</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>326</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -6482,13 +6461,13 @@
         <v>2897</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6482,13 @@
         <v>73729</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H10" s="7">
         <v>90</v>
@@ -6518,13 +6497,13 @@
         <v>91432</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -6533,13 +6512,13 @@
         <v>165161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6533,13 @@
         <v>69487</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -6569,13 +6548,13 @@
         <v>138870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M11" s="7">
         <v>201</v>
@@ -6584,13 +6563,13 @@
         <v>208357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6637,13 @@
         <v>1916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6673,13 +6652,13 @@
         <v>4182</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>454</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -6688,13 +6667,13 @@
         <v>6098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6688,13 @@
         <v>11051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -6724,13 +6703,13 @@
         <v>15253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>413</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -6739,19 +6718,19 @@
         <v>26304</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7">
         <v>10</v>
@@ -6760,13 +6739,13 @@
         <v>9870</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -6775,13 +6754,13 @@
         <v>5327</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>184</v>
+        <v>452</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -6793,16 +6772,16 @@
         <v>17</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>326</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7">
         <v>552</v>
@@ -6811,13 +6790,13 @@
         <v>584998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6826,13 +6805,13 @@
         <v>2089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="M16" s="7">
         <v>554</v>
@@ -6841,19 +6820,19 @@
         <v>587087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7">
         <v>30</v>
@@ -6862,13 +6841,13 @@
         <v>29067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -6877,13 +6856,13 @@
         <v>187117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>192</v>
@@ -6892,19 +6871,19 @@
         <v>216185</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -6913,13 +6892,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -6928,13 +6907,13 @@
         <v>1912</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -6943,13 +6922,13 @@
         <v>1912</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +6943,13 @@
         <v>218026</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
         <v>180</v>
@@ -6979,13 +6958,13 @@
         <v>186625</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>383</v>
@@ -6994,13 +6973,13 @@
         <v>404650</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +6994,13 @@
         <v>437205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>783</v>
@@ -7030,13 +7009,13 @@
         <v>802229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>1187</v>
@@ -7045,13 +7024,13 @@
         <v>1239434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,7 +7086,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7119,13 +7098,13 @@
         <v>1511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -7134,13 +7113,13 @@
         <v>1159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>491</v>
+        <v>23</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -7149,13 +7128,13 @@
         <v>2669</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,10 +7152,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7185,13 +7164,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -7200,10 +7179,10 @@
         <v>1026</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>25</v>
@@ -7212,7 +7191,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -7221,13 +7200,13 @@
         <v>6207</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>488</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7236,13 +7215,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7251,19 +7230,19 @@
         <v>6207</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>23</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7">
         <v>84</v>
@@ -7272,13 +7251,13 @@
         <v>90279</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7287,13 +7266,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -7302,19 +7281,19 @@
         <v>90279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>13</v>
@@ -7323,13 +7302,13 @@
         <v>13763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>501</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -7338,13 +7317,13 @@
         <v>26252</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -7353,19 +7332,19 @@
         <v>40014</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
@@ -7374,13 +7353,13 @@
         <v>1907</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>507</v>
+        <v>371</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7389,13 +7368,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -7404,13 +7383,13 @@
         <v>1907</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>372</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,13 +7404,13 @@
         <v>41951</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -7440,13 +7419,13 @@
         <v>30326</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M28" s="7">
         <v>67</v>
@@ -7455,13 +7434,13 @@
         <v>72277</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,13 +7455,13 @@
         <v>189744</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H29" s="7">
         <v>259</v>
@@ -7491,13 +7470,13 @@
         <v>269726</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M29" s="7">
         <v>429</v>
@@ -7506,13 +7485,13 @@
         <v>459469</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7574,13 @@
         <v>9241</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>86</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>526</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -7610,13 +7589,13 @@
         <v>14603</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,13 +7610,13 @@
         <v>17975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>527</v>
+        <v>91</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>380</v>
+        <v>144</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -7646,13 +7625,13 @@
         <v>21655</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>529</v>
+        <v>274</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>530</v>
+        <v>185</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -7661,19 +7640,19 @@
         <v>39630</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>87</v>
+        <v>523</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="7">
         <v>17</v>
@@ -7682,13 +7661,13 @@
         <v>17093</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>413</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -7703,7 +7682,7 @@
         <v>83</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
@@ -7712,19 +7691,19 @@
         <v>22420</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>531</v>
+        <v>304</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>96</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="7">
         <v>946</v>
@@ -7733,13 +7712,13 @@
         <v>976799</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -7748,13 +7727,13 @@
         <v>3294</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>949</v>
@@ -7763,19 +7742,19 @@
         <v>980093</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>247</v>
+        <v>528</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="7">
         <v>96</v>
@@ -7784,13 +7763,13 @@
         <v>92846</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>537</v>
+        <v>122</v>
       </c>
       <c r="H35" s="7">
         <v>497</v>
@@ -7799,13 +7778,13 @@
         <v>569430</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="M35" s="7">
         <v>593</v>
@@ -7814,19 +7793,19 @@
         <v>662276</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>539</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
@@ -7838,10 +7817,10 @@
         <v>12</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -7850,13 +7829,13 @@
         <v>3921</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -7865,13 +7844,13 @@
         <v>6716</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,13 +7865,13 @@
         <v>333705</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="H37" s="7">
         <v>299</v>
@@ -7901,13 +7880,13 @@
         <v>308383</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>314</v>
+        <v>536</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="M37" s="7">
         <v>612</v>
@@ -7916,13 +7895,13 @@
         <v>642088</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,13 +7916,13 @@
         <v>696436</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H38" s="7">
         <v>1179</v>
@@ -7952,13 +7931,13 @@
         <v>1210824</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="M38" s="7">
         <v>1817</v>
@@ -7967,13 +7946,13 @@
         <v>1907261</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P74A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97A68D0-B178-4154-BE00-5D5818464F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C76C7C-5B75-440F-A9AF-D574F75B4AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC72515F-8B9E-4CB0-8B05-098DBD4BA6EE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8CA471D0-8A78-4814-9BE7-3FBE0CF9B4B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -2102,7 +2102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B625E2EE-2FDC-4402-AB15-FD587E1F0A2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63EA419-A2E0-4AFE-94AB-78F822278526}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2457,7 +2457,7 @@
         <v>486</v>
       </c>
       <c r="N8" s="7">
-        <v>479556</v>
+        <v>479557</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>53</v>
@@ -2661,7 +2661,7 @@
         <v>1564</v>
       </c>
       <c r="N12" s="7">
-        <v>1560706</v>
+        <v>1560707</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>80</v>
@@ -3553,7 +3553,7 @@
         <v>345</v>
       </c>
       <c r="D30" s="7">
-        <v>363440</v>
+        <v>363441</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>80</v>
@@ -4077,7 +4077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C72914B-410E-4C0E-BAC5-C4A8F8C3BB63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45435C3D-8E33-4E6D-9D27-24F8791FD230}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5734,7 +5734,7 @@
         <v>902</v>
       </c>
       <c r="D34" s="7">
-        <v>962420</v>
+        <v>962421</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>375</v>
@@ -5989,7 +5989,7 @@
         <v>2049</v>
       </c>
       <c r="D39" s="7">
-        <v>2209640</v>
+        <v>2209641</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>80</v>
@@ -6052,7 +6052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C13677-B5E2-43D4-B689-C2E19294C258}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B889494-34D8-49E6-A147-19021DBF9584}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
